--- a/Supplementary_Table/Table_S3.xlsx
+++ b/Supplementary_Table/Table_S3.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shulm\AppData\Local\Temp\scp57154\specific\elkon\eldadshulman\GTEX\table_scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shulm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65012DE8-A13C-4D08-88CF-07D4F5DA9B67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06D4A45-A8A7-4EF6-85D8-9035FB83EF0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GWAS_links_refrences" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="279">
   <si>
     <t>Study</t>
   </si>
@@ -755,14 +755,132 @@
   </si>
   <si>
     <t>PMCID: PMC5977506 DOI: 10.1186/s13075-018-1604-1</t>
+  </si>
+  <si>
+    <t>Download Link</t>
+  </si>
+  <si>
+    <t>Used scripts from: https://github.com/mikegloudemans/gwas-download</t>
+  </si>
+  <si>
+    <t>http://amdgenetics.org/</t>
+  </si>
+  <si>
+    <t>https://ckdgen.imbi.uni-freiburg.de/files/Teumer2019/formatted_20180517-UACR_overall-EA-nstud_18-SumMac_400.tbl.rsid.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ctg.cncr.nl/software/summary_statistics </t>
+  </si>
+  <si>
+    <t>ftp://ftp.ebi.ac.uk/pub/databases/gwas/summary_statistics/NicolasA_29566793_GCST005647/alsMetaSummaryStats_march21st2018.txt</t>
+  </si>
+  <si>
+    <t>https://www.med.unc.edu/pgc/results-and-downloads/ed/</t>
+  </si>
+  <si>
+    <t>ftp://ftp.ebi.ac.uk/pub/databases/gwas/summary_statistics/ZhuZ_31619474_GCST008916/ukb.allasthma.upload.final.assoc.gz</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/gwas/downloads/summary-statistics</t>
+  </si>
+  <si>
+    <t>ftp://ftp.ebi.ac.uk/pub/databases/gwas/summary_statistics/NielsenJB_30061737_GCST006414/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.med.unc.edu/pgc/results-and-downloads/asd/?choice=Autism+Spectrum+Disorder+%28ASD%29 </t>
+  </si>
+  <si>
+    <t>https://zenodo.org/record/1319332/files/20170921_crude_pain_450K_cleaned.txt?download=1</t>
+  </si>
+  <si>
+    <t>http://bcac.ccge.medschl.cam.ac.uk/bcacdata/oncoarray/gwas-icogs-and-oncoarray-summary-results/</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/record/1251813/files/whradjbmi.giant-ukbb.meta-analysis.combined.23May2018.txt.gz?download=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nature.com/articles/s41467-019-08993-6#data-availability </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://ckdgen.imbi.uni-freiburg.de/files/Wuttke2019/CKD_overall_EA_JW_20180223_nstud23.dbgap.txt.gz</t>
+  </si>
+  <si>
+    <t>https://datashare.is.ed.ac.uk/handle/10283/2976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.cardiogramplusc4d.org/data-downloads/ </t>
+  </si>
+  <si>
+    <t>ftp://ftp.sanger.ac.uk/pub/project/humgen/summary_statistics/human/2016-11-07/cd_build37_40266_20161107.txt.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ftp://ftp.ebi.ac.uk/pub/databases/gwas/summary_statistics/CorvolH_26417704_GCST003143/CorvolH_26417704.txt.gz</t>
+  </si>
+  <si>
+    <t>http://ocac.ccge.medschl.cam.ac.uk/data-projects/results-lookup-by-region/</t>
+  </si>
+  <si>
+    <t>http://www.gefos.org/?q=content/data-release-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/GERD_GWAS_summary/8986589 </t>
+  </si>
+  <si>
+    <t>https://xikunhan.github.io/site/publication/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5898025/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://zenodo.org/record/3490750#.XeZzyegzaUl </t>
+  </si>
+  <si>
+    <t>https://ctg.cncr.nl/software/summary_statistics</t>
+  </si>
+  <si>
+    <t>https://www.reprogen.org/data_download.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://practical.icr.ac.uk/blog/?page_id=8164 </t>
+  </si>
+  <si>
+    <t>ftp://ftp.ebi.ac.uk/pub/databases/gwas/summary_statistics/LaskarRS_31231134_GCST008226/Laskar_31231134_Males.gz</t>
+  </si>
+  <si>
+    <t>https://walters.psycm.cf.ac.uk/</t>
+  </si>
+  <si>
+    <t>http://www.megastroke.org/download.html</t>
+  </si>
+  <si>
+    <t>http://diagram-consortium.org/downloads.html</t>
+  </si>
+  <si>
+    <t>ftp://ftp.ebi.ac.uk/pub/databases/gwas/summary_statistics/JuliaA_29848360_GCST005831/GWAS_SLE_summaryStats/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -787,13 +905,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1105,1019 +1227,1437 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E4066F-A423-439B-9DA0-B1BE693EC3A8}">
+  <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:XFD94"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" t="s">
+        <v>243</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B34" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C34" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B35" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C35" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B36" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C36" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B37" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C37" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B38" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C38" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B39" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C39" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B40" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C40" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B41" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C41" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B42" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C42" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B43" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C43" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B44" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C44" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B45" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C45" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B46" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C46" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B47" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C47" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B48" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C48" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B49" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C49" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B50" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C50" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B51" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C51" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B52" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C52" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B53" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C53" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B54" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C54" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B55" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C55" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B56" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C56" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B57" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C57" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B58" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C58" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B59" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C59" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B60" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C60" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B61" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C61" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B62" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C62" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B63" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C63" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B64" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C64" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B65" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C65" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B66" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C66" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B67" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C67" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B68" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C68" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B69" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="C69" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B70" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="C70" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B71" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C71" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B72" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="C72" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B73" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C73" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B74" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="C74" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B75" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="C75" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B76" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="C76" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>45</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B77" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="C77" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B78" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="C78" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B79" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="C79" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B80" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="C80" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B81" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="C81" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B82" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="C82" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>51</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B83" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="C83" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>52</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B84" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="C84" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>53</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B85" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="C85" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>54</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B86" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="C86" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>55</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B87" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="C87" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>56</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B88" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="C88" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>57</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B89" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="C89" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>58</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B90" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C90" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B91" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="C91" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>60</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B92" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="C92" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>61</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B93" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="C93" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>62</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B94" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="C94" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>63</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B95" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="C95" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>64</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B96" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="C96" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>65</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B97" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="C97" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>66</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B98" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="C98" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>67</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B99" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="C99" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>68</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B100" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="C100" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>69</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B101" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="C101" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>70</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B102" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="C102" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>3</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B103" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="C103" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B104" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="C104" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B105" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="C105" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B106" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="C106" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B107" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="C107" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>49</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B108" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="C108" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B109" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="C109" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B110" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="C110" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B111" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="C111" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B112" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="C112" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B113" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="C113" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B114" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="C114" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B115" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="C115" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B116" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="C116" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B117" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="C117" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B118" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="C118" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B119" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="C119" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B120" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="C120" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B121" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="C121" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B122" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="C122" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B123" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="C123" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B124" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="C124" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B125" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>111</v>
-      </c>
-      <c r="B113" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>112</v>
-      </c>
-      <c r="B114" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>114</v>
-      </c>
-      <c r="B116" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>94</v>
-      </c>
-      <c r="B118" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>116</v>
-      </c>
-      <c r="B119" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>117</v>
-      </c>
-      <c r="B120" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>118</v>
-      </c>
-      <c r="B121" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>119</v>
-      </c>
-      <c r="B122" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>120</v>
-      </c>
-      <c r="B123" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>121</v>
-      </c>
-      <c r="B124" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>122</v>
-      </c>
-      <c r="B125" t="s">
-        <v>244</v>
+      <c r="C125" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C34" r:id="rId1" xr:uid="{4EB2707C-B991-4BF5-A744-40C1966E5C92}"/>
+    <hyperlink ref="C35:C67" r:id="rId2" display="Used scripts from: https://github.com/mikegloudemans/gwas-download" xr:uid="{B46D83E9-DDD6-4A2A-A38B-98F8DE0B9686}"/>
+    <hyperlink ref="C68" r:id="rId3" xr:uid="{C7476E6F-2A44-4D9A-8EBC-412C87185A56}"/>
+    <hyperlink ref="C69:C93" r:id="rId4" display="Used scripts from: https://github.com/mikegloudemans/gwas-download" xr:uid="{DF6F35BE-5BA3-4668-9E4E-46BD61DE8A40}"/>
+    <hyperlink ref="C94" r:id="rId5" xr:uid="{35ABE3E3-1114-44B9-8DF2-E94531D7184B}"/>
+    <hyperlink ref="C95:C124" r:id="rId6" display="Used scripts from: https://github.com/mikegloudemans/gwas-download" xr:uid="{1FB5723E-44DE-404E-A665-7273CF3E497E}"/>
+    <hyperlink ref="C125" r:id="rId7" xr:uid="{6B08F9F3-C4C8-48FC-8A62-D3C6279468EC}"/>
+    <hyperlink ref="C2" r:id="rId8" xr:uid="{7248D99A-BBBC-43FC-B89D-EB733E97EFB1}"/>
+    <hyperlink ref="C3" r:id="rId9" xr:uid="{ACFC2FBF-5CF6-4720-A48F-CD6C1CF33939}"/>
+    <hyperlink ref="C4" r:id="rId10" xr:uid="{CBBD947C-DF82-4A52-9D8A-9DA2D10D4D72}"/>
+    <hyperlink ref="C5" r:id="rId11" xr:uid="{D41B8722-A89B-44B0-B160-677841121DD2}"/>
+    <hyperlink ref="C6" r:id="rId12" xr:uid="{DBD7A00B-374F-4448-80BA-B836A330776B}"/>
+    <hyperlink ref="C7" r:id="rId13" xr:uid="{FC16DEED-E072-4201-AF96-50706F477A13}"/>
+    <hyperlink ref="C8" r:id="rId14" xr:uid="{86372157-4DDF-4C97-8789-61C320790B6F}"/>
+    <hyperlink ref="C9" r:id="rId15" xr:uid="{AADE9C30-11E2-47FB-9F79-5BEFD2DEB924}"/>
+    <hyperlink ref="C10" r:id="rId16" xr:uid="{4DDE5157-88CE-45E3-B261-ED0F5BD1D193}"/>
+    <hyperlink ref="C11" r:id="rId17" xr:uid="{AA1114B1-5505-43C0-9827-733014C4F31B}"/>
+    <hyperlink ref="C13" r:id="rId18" xr:uid="{AB202D8F-62AD-4E31-B009-861008C6BB70}"/>
+    <hyperlink ref="C12" r:id="rId19" xr:uid="{C119F580-DC41-4A65-9DE3-F85B84C109F0}"/>
+    <hyperlink ref="C14" r:id="rId20" location="data-availability" xr:uid="{554CFF47-7D3E-4914-9CE1-210310571C15}"/>
+    <hyperlink ref="C15" r:id="rId21" xr:uid="{B3A0618E-B5AE-4FCE-8A41-CBEC5B591ADC}"/>
+    <hyperlink ref="C16" r:id="rId22" xr:uid="{F0D58F2B-BDE6-410D-908D-8D589F1C37C7}"/>
+    <hyperlink ref="C17" r:id="rId23" xr:uid="{512B4CFA-C1F0-4B51-8D7F-196A0B5B2D15}"/>
+    <hyperlink ref="C18" r:id="rId24" xr:uid="{34BAEF66-AF67-4BCA-B381-509D8B4C013F}"/>
+    <hyperlink ref="C19" r:id="rId25" xr:uid="{20F826E2-F07F-4D0F-9235-129FD8EE1C03}"/>
+    <hyperlink ref="C20" r:id="rId26" xr:uid="{E1C048D6-9A46-4A7E-80EA-62365DEB06AB}"/>
+    <hyperlink ref="C21" r:id="rId27" xr:uid="{05D6E9EC-CDB0-4FE3-82CC-CCF939EF6747}"/>
+    <hyperlink ref="C22" r:id="rId28" xr:uid="{FF8A50D8-1314-403D-B877-9809045018DE}"/>
+    <hyperlink ref="C23" r:id="rId29" xr:uid="{B4CD2F15-9343-45E7-94B3-49C48CA82A2E}"/>
+    <hyperlink ref="C24" r:id="rId30" xr:uid="{5FD3245B-EA96-41EC-8FA1-8FA038DDA27E}"/>
+    <hyperlink ref="C25" r:id="rId31" location=".XeZzyegzaUl" xr:uid="{0DF943FE-EA61-4E56-A096-3C29A7746210}"/>
+    <hyperlink ref="C26" r:id="rId32" xr:uid="{36AF16DF-C812-4F4E-B736-1520AC4F0E85}"/>
+    <hyperlink ref="C27" r:id="rId33" xr:uid="{6108641D-65ED-444E-AF42-C526B85EB498}"/>
+    <hyperlink ref="C28" r:id="rId34" xr:uid="{3666B9DE-111E-4A52-9BBF-EAE24ADB765C}"/>
+    <hyperlink ref="C29" r:id="rId35" xr:uid="{0E85CD5E-B533-4624-9C08-5035ECD0DE6A}"/>
+    <hyperlink ref="C30" r:id="rId36" xr:uid="{37AF9AB1-AB37-4AFB-8C2E-1AB2A4E72967}"/>
+    <hyperlink ref="C31" r:id="rId37" xr:uid="{B9969E74-5212-47DF-A50C-9E3C37BAB515}"/>
+    <hyperlink ref="C32" r:id="rId38" xr:uid="{EBBA5A58-FB74-4B00-9F66-4E16DA2F52AA}"/>
+    <hyperlink ref="C33" r:id="rId39" xr:uid="{BBFABE7A-8CD6-4454-AF37-53F0E2A5B793}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>